--- a/Documents/Req_Analyse.xlsx
+++ b/Documents/Req_Analyse.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joris\Documents\GitHub\DIHM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joris\Documents\GitHub\DIHM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B6B79F-81E3-443F-9A55-FB1888C1D843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325148FE-E2ED-4C70-AD8B-4D99A8311A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>Every certified validation of the IHM must be logged in the IHM</t>
   </si>
   <si>
-    <t>Changes to the IHM must be able be validated by a consensus mechanism to prevent tampering</t>
-  </si>
-  <si>
     <t>Demonstration</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>Server will respond with a message (IHM is valid) if IHM exists on server and in terminal will show up to 20 lines of IHM changes.</t>
+  </si>
+  <si>
+    <t>New IHM versions must be able be validated by a consensus mechanism before uploading to prevent tampering</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,13 +442,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -456,13 +456,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -470,13 +470,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -487,10 +487,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -501,10 +501,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Req_Analyse.xlsx
+++ b/Documents/Req_Analyse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joris\Documents\GitHub\DIHM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325148FE-E2ED-4C70-AD8B-4D99A8311A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B60E0D5-9323-4C4A-BEA3-9A560BAB3BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>Demonstration</t>
   </si>
   <si>
-    <t>IHM must be able to be updated by someone with the right credentials. This change and who made it has to documented in the IHM to be seen by anyone</t>
-  </si>
-  <si>
     <t>The right people get access to the IHM server where they can add information to the IHM without overwriting the first version to avoid tampering. Also the name and date of the change will be logged in there as well.</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>New IHM versions must be able be validated by a consensus mechanism before uploading to prevent tampering</t>
+  </si>
+  <si>
+    <t>Newer versions of the IHM must be able to be uploaded by someone with the right credentials. The uploaded file, user and current time has to documented in the system to be seen by anyone</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,10 +442,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -456,10 +456,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -470,10 +470,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -487,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -501,10 +501,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Req_Analyse.xlsx
+++ b/Documents/Req_Analyse.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joris\Documents\GitHub\DIHM\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joris\Desktop\DIHM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B60E0D5-9323-4C4A-BEA3-9A560BAB3BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACA612F-C57D-4FDB-8001-77111755EDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -84,6 +84,18 @@
   </si>
   <si>
     <t>Newer versions of the IHM must be able to be uploaded by someone with the right credentials. The uploaded file, user and current time has to documented in the system to be seen by anyone</t>
+  </si>
+  <si>
+    <t>After upload the file cannot be edited by any account.</t>
+  </si>
+  <si>
+    <t>If for some reason a file is edited, the system will detect this to warn other users that tampering occurred.</t>
+  </si>
+  <si>
+    <t>Use a hashing algorith to see if any changes occurred to the secured file</t>
+  </si>
+  <si>
+    <t>The webinterface secures the files on a server so that a file may only be downloaded and not edited.</t>
   </si>
 </sst>
 </file>
@@ -410,20 +422,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="53.7109375" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="53.6640625" customWidth="1"/>
+    <col min="3" max="3" width="43.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,7 +449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -451,7 +463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -465,7 +477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -479,7 +491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -493,7 +505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -504,6 +516,34 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
